--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f76643218ff399e9/デスクトップ/消さないでね♡＿和義フォルダ/勉強/Nodejs/excel_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_B54758C04CF21E1694601F468011A32B41A25820" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6906923-903E-4917-8F15-2F3ED88A947F}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_EF03F9CF4CF21E1694601F56C8D0874D41A2D771" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6207C7E-9C11-433D-91F3-1CEB83C3A58C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>更新日時</t>
   </si>
@@ -31,85 +31,43 @@
     <t>内容</t>
   </si>
   <si>
-    <t>2023/5/14 22:6:36</t>
-  </si>
-  <si>
-    <t>緒方</t>
-  </si>
-  <si>
-    <t>エクセルをDBとするトライです。</t>
-  </si>
-  <si>
-    <t>2023/5/14 22:6:54</t>
-  </si>
-  <si>
-    <t>尊</t>
-  </si>
-  <si>
-    <t>どうですか？できてそう？</t>
-  </si>
-  <si>
-    <t>2023/5/14 22:11:36</t>
-  </si>
-  <si>
-    <t>おっちんとん</t>
-  </si>
-  <si>
-    <t>これでどう？</t>
-  </si>
-  <si>
-    <t>2023/5/14 22:12:04</t>
-  </si>
-  <si>
-    <t>２３４</t>
-  </si>
-  <si>
-    <t>ええやろ？</t>
-  </si>
-  <si>
-    <t>2023/5/14 22:12:13</t>
-  </si>
-  <si>
-    <t>ｄｆｓｄふぁｓｄ</t>
-  </si>
-  <si>
-    <t>これでいける</t>
-  </si>
-  <si>
-    <t>2023/5/14 22:22:53</t>
-  </si>
-  <si>
-    <t>分割したいです</t>
-  </si>
-  <si>
-    <t>どうでしょうか？</t>
-  </si>
-  <si>
-    <t>2023/5/14 22:38:27</t>
-  </si>
-  <si>
-    <t>5392</t>
-  </si>
-  <si>
-    <t>ごみくず</t>
-  </si>
-  <si>
-    <t>2023/5/14 22:39:22</t>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>2023/5/14 23:43:26</t>
+  </si>
+  <si>
+    <t>緒方　尊</t>
+  </si>
+  <si>
+    <t>これからちゃんと食べます</t>
+  </si>
+  <si>
+    <t>0.8668081135931869</t>
+  </si>
+  <si>
+    <t>2023/5/14 23:43:41</t>
   </si>
   <si>
     <t>緒方　和義</t>
   </si>
   <si>
-    <t>Nodejsの勉強中</t>
-  </si>
-  <si>
-    <t>2023/5/14 23:11:58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kazuyoshi Ogata </t>
-  </si>
-  <si>
-    <t>これなら良いですよね？</t>
+    <t>これから良いパパになります。</t>
+  </si>
+  <si>
+    <t>0.03161124766840251</t>
+  </si>
+  <si>
+    <t>2023/5/14 23:43:59</t>
+  </si>
+  <si>
+    <t>Ogata Kazuyoshi</t>
+  </si>
+  <si>
+    <t>DIGに行ってソフトウェアエンジニアになります。</t>
+  </si>
+  <si>
+    <t>0.7909000066729883</t>
   </si>
 </sst>
 </file>
@@ -468,18 +426,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="2" max="3" width="22.7265625" customWidth="1"/>
+    <col min="1" max="4" width="26.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" ht="19.8" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -489,104 +447,50 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" ht="19.8" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" ht="19.8" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="19.8" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" ht="19.8" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="19.8" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:4" ht="19.8" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="19.8" x14ac:dyDescent="0.5">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="19.8" x14ac:dyDescent="0.5">
-      <c r="A6" t="s">
+      <c r="D4" t="s">
         <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="19.8" x14ac:dyDescent="0.5">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="19.8" x14ac:dyDescent="0.5">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="19.8" x14ac:dyDescent="0.5">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="19.8" x14ac:dyDescent="0.5">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -594,7 +498,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C10" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:D4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f76643218ff399e9/デスクトップ/消さないでね♡＿和義フォルダ/勉強/Nodejs/excel_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_EF03F9CF4CF21E1694601F56C8D0874D41A2D771" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6207C7E-9C11-433D-91F3-1CEB83C3A58C}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_E36719D44CF21E1694601F430815832740A29AF0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE789433-2043-464B-8922-6BF1C28A6435}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>更新日時</t>
   </si>
@@ -28,46 +28,50 @@
     <t>ユーザー名</t>
   </si>
   <si>
+    <t>ID</t>
+  </si>
+  <si>
     <t>内容</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>2023/5/14 23:43:26</t>
-  </si>
-  <si>
-    <t>緒方　尊</t>
-  </si>
-  <si>
-    <t>これからちゃんと食べます</t>
-  </si>
-  <si>
-    <t>0.8668081135931869</t>
-  </si>
-  <si>
-    <t>2023/5/14 23:43:41</t>
-  </si>
-  <si>
-    <t>緒方　和義</t>
-  </si>
-  <si>
-    <t>これから良いパパになります。</t>
-  </si>
-  <si>
-    <t>0.03161124766840251</t>
-  </si>
-  <si>
-    <t>2023/5/14 23:43:59</t>
-  </si>
-  <si>
-    <t>Ogata Kazuyoshi</t>
-  </si>
-  <si>
-    <t>DIGに行ってソフトウェアエンジニアになります。</t>
-  </si>
-  <si>
-    <t>0.7909000066729883</t>
+    <t>2023/5/14 23:54:09</t>
+  </si>
+  <si>
+    <t>Aさん</t>
+  </si>
+  <si>
+    <t>function randomUUID(options) {_x000D_
+  if (options !== undefined)_x000D_
+    validateObject(options, 'options');_x000D_
+  const {_x000D_
+    disableEntropyCache = false,_x000D_
+  } = options || kEmptyObject;_x000D_
+_x000D_
+  validateBoolean(disableEntropyCache, 'options.disableEntropyCache');_x000D_
+_x000D_
+  return disableEntropyCache ? getUnbufferedUUID() : getBufferedUUID();_x000D_
+}</t>
+  </si>
+  <si>
+    <t>これから頑張ります</t>
+  </si>
+  <si>
+    <t>2023/5/14 23:54:17</t>
+  </si>
+  <si>
+    <t>Bさん</t>
+  </si>
+  <si>
+    <t>今までも頑張ってます</t>
+  </si>
+  <si>
+    <t>2023/5/14 23:54:26</t>
+  </si>
+  <si>
+    <t>Cさん</t>
+  </si>
+  <si>
+    <t>正直何もしてません。</t>
   </si>
 </sst>
 </file>
@@ -429,12 +433,14 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="4" width="26.26953125" customWidth="1"/>
+    <col min="1" max="2" width="32.54296875" customWidth="1"/>
+    <col min="3" max="3" width="93.08984375" customWidth="1"/>
+    <col min="4" max="4" width="32.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.8" x14ac:dyDescent="0.5">
@@ -473,24 +479,24 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="19.8" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f76643218ff399e9/デスクトップ/消さないでね♡＿和義フォルダ/勉強/Nodejs/excel_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_E36719D44CF21E1694601F430815832740A29AF0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE789433-2043-464B-8922-6BF1C28A6435}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_E99BB9C14CF21E1694601FDBB051A06F40A28C3C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FABBA198-4A8B-4ABF-9378-60E794528C2B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>更新日時</t>
   </si>
@@ -34,44 +34,163 @@
     <t>内容</t>
   </si>
   <si>
-    <t>2023/5/14 23:54:09</t>
-  </si>
-  <si>
-    <t>Aさん</t>
-  </si>
-  <si>
-    <t>function randomUUID(options) {_x000D_
-  if (options !== undefined)_x000D_
-    validateObject(options, 'options');_x000D_
-  const {_x000D_
-    disableEntropyCache = false,_x000D_
-  } = options || kEmptyObject;_x000D_
-_x000D_
-  validateBoolean(disableEntropyCache, 'options.disableEntropyCache');_x000D_
-_x000D_
-  return disableEntropyCache ? getUnbufferedUUID() : getBufferedUUID();_x000D_
-}</t>
-  </si>
-  <si>
-    <t>これから頑張ります</t>
-  </si>
-  <si>
-    <t>2023/5/14 23:54:17</t>
-  </si>
-  <si>
-    <t>Bさん</t>
-  </si>
-  <si>
-    <t>今までも頑張ってます</t>
-  </si>
-  <si>
-    <t>2023/5/14 23:54:26</t>
-  </si>
-  <si>
-    <t>Cさん</t>
-  </si>
-  <si>
-    <t>正直何もしてません。</t>
+    <t>2023/5/17 20:56:04</t>
+  </si>
+  <si>
+    <t>太郎</t>
+  </si>
+  <si>
+    <t>0f758148-d12c-4310-8cef-ab203d9d701d</t>
+  </si>
+  <si>
+    <t>僕は長男です</t>
+  </si>
+  <si>
+    <t>2023/5/17 20:56:12</t>
+  </si>
+  <si>
+    <t>次郎</t>
+  </si>
+  <si>
+    <t>8eeb6c42-c3a9-4d23-b1df-a0b90dcdf1f7</t>
+  </si>
+  <si>
+    <t>僕は次男です</t>
+  </si>
+  <si>
+    <t>2023/5/17 20:56:20</t>
+  </si>
+  <si>
+    <t>三郎</t>
+  </si>
+  <si>
+    <t>3d075da6-c557-44c0-839a-dcc64ca08f8d</t>
+  </si>
+  <si>
+    <t>僕は三男です</t>
+  </si>
+  <si>
+    <t>2023/5/17 20:56:31</t>
+  </si>
+  <si>
+    <t>四郎</t>
+  </si>
+  <si>
+    <t>f62c91d4-a16a-4434-9113-9ffc44ca8ea0</t>
+  </si>
+  <si>
+    <t>僕は何番目でしょうか？</t>
+  </si>
+  <si>
+    <t>2023/5/17 21:04:47</t>
+  </si>
+  <si>
+    <t>六郎</t>
+  </si>
+  <si>
+    <t>efafbbcc-fe79-400b-9a15-9f278492d8ec</t>
+  </si>
+  <si>
+    <t>さあ僕は何番目？</t>
+  </si>
+  <si>
+    <t>2023/5/17 21:31:20</t>
+  </si>
+  <si>
+    <t>fsdfas</t>
+  </si>
+  <si>
+    <t>57968a35-2470-4b14-bf7f-fad1a525297d</t>
+  </si>
+  <si>
+    <t>asdsdfsdfas</t>
+  </si>
+  <si>
+    <t>2023/5/17 21:33:29</t>
+  </si>
+  <si>
+    <t>いしかわゆうき</t>
+  </si>
+  <si>
+    <t>fd1813ee-bf5a-44ba-a3e1-ee00871b647d</t>
+  </si>
+  <si>
+    <t>こんちは！！</t>
+  </si>
+  <si>
+    <t>2023/5/17 21:41:42</t>
+  </si>
+  <si>
+    <t>ありさん</t>
+  </si>
+  <si>
+    <t>5262aef7-3270-4c16-af48-cb9e56a70995</t>
+  </si>
+  <si>
+    <t>あいさんと呼びます</t>
+  </si>
+  <si>
+    <t>2023/5/17 21:49:53</t>
+  </si>
+  <si>
+    <t>追加してますよ</t>
+  </si>
+  <si>
+    <t>84231e44-f8a9-4fe7-8544-e2b3a49ccd75</t>
+  </si>
+  <si>
+    <t>ABCD</t>
+  </si>
+  <si>
+    <t>2023/5/17 22:03:25</t>
+  </si>
+  <si>
+    <t>ふぁｓだｄｓｆ</t>
+  </si>
+  <si>
+    <t>982c3c99-7c49-40e6-8055-7438d11c133e</t>
+  </si>
+  <si>
+    <t>追加しました</t>
+  </si>
+  <si>
+    <t>2023/5/17 22:45:02</t>
+  </si>
+  <si>
+    <t>API設計初心者</t>
+  </si>
+  <si>
+    <t>6ccb7748-3cd8-4201-b64c-de32ed43ef09</t>
+  </si>
+  <si>
+    <t>追加できてますかね？</t>
+  </si>
+  <si>
+    <t>手でやっちゃいます</t>
+    <rPh sb="0" eb="1">
+      <t>テ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手動更新のため不明</t>
+    <rPh sb="0" eb="4">
+      <t>シュドウコウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>フメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手動でDBに追加しちゃいました。</t>
+    <rPh sb="0" eb="2">
+      <t>シュドウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -131,6 +250,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -430,20 +553,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="19.8" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="2" width="32.54296875" customWidth="1"/>
-    <col min="3" max="3" width="93.08984375" customWidth="1"/>
-    <col min="4" max="4" width="32.54296875" customWidth="1"/>
+    <col min="1" max="4" width="40.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -457,7 +578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="19.8" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -471,7 +592,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="19.8" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -479,24 +600,150 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="19.8" x14ac:dyDescent="0.5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -504,7 +751,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:D4" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:D12" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>